--- a/testdata/Testdata.xlsx
+++ b/testdata/Testdata.xlsx
@@ -258,7 +258,7 @@
     <t>Phase1</t>
   </si>
   <si>
-    <t>TD Test112</t>
+    <t>TD Test125</t>
   </si>
 </sst>
 </file>
@@ -625,7 +625,7 @@
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/testdata/Testdata.xlsx
+++ b/testdata/Testdata.xlsx
@@ -19,6 +19,41 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="A4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Need to change on every run
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="217">
   <si>
@@ -568,9 +603,6 @@
     <t>Trackdfect</t>
   </si>
   <si>
-    <t>TD Test155</t>
-  </si>
-  <si>
     <t>Personal Information</t>
   </si>
   <si>
@@ -670,14 +702,17 @@
     <t>Infosys Ltd</t>
   </si>
   <si>
-    <t>TD Test159</t>
+    <t>TD Test162</t>
+  </si>
+  <si>
+    <t>TD New Test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -693,8 +728,29 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -710,6 +766,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,10 +830,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -755,8 +848,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1034,11 +1137,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1073,7 +1176,7 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1081,14 +1184,14 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="12" t="s">
         <v>216</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -1110,134 +1213,134 @@
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>184</v>
+      <c r="C7" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>186</v>
+      <c r="C8" s="10" t="s">
+        <v>185</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C12" s="2" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13" s="2" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C16" s="2" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -1292,7 +1395,7 @@
         <v>76</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -1307,79 +1410,79 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="2" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="2" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="2" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="13" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1395,157 +1498,157 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="2" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="2" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="2" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="2" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="2" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="2" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="14" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="2" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="14" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" s="2" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="14" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C41" s="2" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="14" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A42" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" s="2" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="14" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="2" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="15" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" s="4" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="15" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
@@ -1582,80 +1685,80 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>185</v>
+      <c r="C49" s="11" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="11" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C53" s="11" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A53" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C53" s="2" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C54" s="11" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A54" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C54" s="2" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A55" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C55" s="11" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A55" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
@@ -1664,8 +1767,12 @@
       <c r="C56" s="7"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1674,7 +1781,7 @@
   <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
